--- a/students_importing.xlsx
+++ b/students_importing.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nguyễn Văn A</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>Lớp</t>
-  </si>
-  <si>
-    <t>CNTT</t>
   </si>
 </sst>
 </file>
@@ -384,7 +381,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,9 +416,7 @@
       <c r="C2" s="1">
         <v>123456</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -433,9 +428,7 @@
       <c r="C3" s="1">
         <v>123456</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -447,11 +440,14 @@
       <c r="C4" s="1">
         <v>123456</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"Công nghệ thông tin, Kỹ thuật phần mềm, Quản trị kinh doanh, Kế toán, Marketing, Thiết kế đồ họa, Tài chính ngân hàng"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/students_importing.xlsx
+++ b/students_importing.xlsx
@@ -445,7 +445,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
-      <formula1>"Công nghệ thông tin, Kỹ thuật phần mềm, Quản trị kinh doanh, Kế toán, Marketing, Thiết kế đồ họa, Tài chính ngân hàng"</formula1>
+      <formula1>"CNTT, Kỹ thuật phần mềm, Quản trị kinh doanh, Kế toán, Marketing, Thiết kế đồ họa, Tài chính ngân hàng"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
